--- a/Marketing Analytics in Python/2022/assignment 1/dataset/Q2-RobloxTotalUsers.xlsx
+++ b/Marketing Analytics in Python/2022/assignment 1/dataset/Q2-RobloxTotalUsers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Teach\Marketing analytics\2022\2022 Analytics\Assignment 1\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1D65F9-D4E8-4AEB-8DC9-D35616793E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE99C7AC-7110-4397-B597-83F621E54B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1968" yWindow="4068" windowWidth="30960" windowHeight="12120" xr2:uid="{6E6D867A-E02F-4C91-B3C7-BDC2ECDE1EFA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>2016_1H</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>Users</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Period</t>
   </si>
 </sst>
 </file>
@@ -423,104 +429,143 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8603F23C-D9B7-4425-B5BD-49F1C94C0EB6}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
         <v>202</v>
       </c>
     </row>
